--- a/ParametricGraph/bench4x2.xlsx
+++ b/ParametricGraph/bench4x2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Параметрическая функция</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Прибор 2,3</t>
+  </si>
+  <si>
+    <t>Максимизация</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -409,6 +412,9 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
       <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
@@ -433,6 +439,9 @@
       <c r="B2">
         <f>2*11*10*2*11*10</f>
         <v>48400</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19">
